--- a/Data/Osteomyelitis_Diabetes_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Diabetes_Mortality_Trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E70A7-E36B-4F4C-9EE0-E58C608A4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380FF350-1ED2-BE45-9B3F-352288CABE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="16960" activeTab="1" xr2:uid="{F185EE07-026F-D548-AA2A-DFA950432F73}"/>
   </bookViews>
@@ -2107,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE23D5DA-7A86-A34D-9834-B21E6A5945F2}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection activeCell="B24" sqref="B24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2437,6 +2437,48 @@
         <v>0.69</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>0.81</v>
+      </c>
+      <c r="C24">
+        <v>0.78</v>
+      </c>
+      <c r="D24">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>0.83</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>0.83</v>
+      </c>
+      <c r="C26">
+        <v>0.8</v>
+      </c>
+      <c r="D26">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Osteomyelitis_Diabetes_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Diabetes_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380FF350-1ED2-BE45-9B3F-352288CABE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BAC7E-4650-E14B-A4C7-61D163436374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="16960" activeTab="1" xr2:uid="{F185EE07-026F-D548-AA2A-DFA950432F73}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{F185EE07-026F-D548-AA2A-DFA950432F73}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2134,7 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="C2">
         <v>0.26</v>
@@ -2148,7 +2148,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.28999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="C3">
         <v>0.27</v>
@@ -2162,7 +2162,7 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="C4">
         <v>0.28999999999999998</v>
@@ -2176,7 +2176,7 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C5">
         <v>0.31</v>
@@ -2190,7 +2190,7 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C6">
         <v>0.32</v>
@@ -2204,7 +2204,7 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="C7">
         <v>0.34</v>
@@ -2218,7 +2218,7 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C8">
         <v>0.31</v>
@@ -2232,7 +2232,7 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="C9">
         <v>0.32</v>
@@ -2246,7 +2246,7 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -2260,7 +2260,7 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="C11">
         <v>0.28999999999999998</v>
@@ -2274,7 +2274,7 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
         <v>0.28999999999999998</v>
@@ -2288,7 +2288,7 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -2302,7 +2302,7 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
         <v>0.33</v>
@@ -2316,7 +2316,7 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="C15">
         <v>0.32</v>
@@ -2330,7 +2330,7 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="C16">
         <v>0.32</v>
@@ -2344,7 +2344,7 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="C17">
         <v>0.36</v>
@@ -2358,7 +2358,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="C18">
         <v>0.41</v>
@@ -2372,7 +2372,7 @@
         <v>2016</v>
       </c>
       <c r="B19">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C19">
         <v>0.41</v>
@@ -2386,7 +2386,7 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="C20">
         <v>0.46</v>
@@ -2400,7 +2400,7 @@
         <v>2018</v>
       </c>
       <c r="B21">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="C21">
         <v>0.46</v>
@@ -2414,7 +2414,7 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="C22">
         <v>0.53</v>
@@ -2428,7 +2428,7 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="C23">
         <v>0.64</v>
@@ -2442,7 +2442,7 @@
         <v>2021</v>
       </c>
       <c r="B24">
-        <v>0.81</v>
+        <v>1.03</v>
       </c>
       <c r="C24">
         <v>0.78</v>
@@ -2456,7 +2456,7 @@
         <v>2022</v>
       </c>
       <c r="B25">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
         <v>0.8</v>
@@ -2470,7 +2470,7 @@
         <v>2023</v>
       </c>
       <c r="B26">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="C26">
         <v>0.8</v>
